--- a/biology/Botanique/Parc_Kai_Tak_Runway/Parc_Kai_Tak_Runway.xlsx
+++ b/biology/Botanique/Parc_Kai_Tak_Runway/Parc_Kai_Tak_Runway.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc Kai Tak Runway est un parc public construit à l'emplacement de la piste de l'ancien aéroport Kai Tak de Hong Kong. Il fait partie du projet de développement urbain de Kai Tak (en) (renouveau du Sud-Est de la péninsule de Kowloon par la réhabilitation des 320 hectares du site de l’ancien aéroport)[1],[2],[3].
+Le parc Kai Tak Runway est un parc public construit à l'emplacement de la piste de l'ancien aéroport Kai Tak de Hong Kong. Il fait partie du projet de développement urbain de Kai Tak (en) (renouveau du Sud-Est de la péninsule de Kowloon par la réhabilitation des 320 hectares du site de l’ancien aéroport).
 Le parc doit être construit en deux phases, et devrait être achevé en 2016.
 Le coût estimé total est de 240 millions de dollars de Hong Kong.
 </t>
@@ -514,7 +526,9 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Kai Tak Runway est situé dans le district de Kowloon City, un des dix-huit districts de Hong Kong, et plus précisément dans une des huit circonscription administratives de la péninsule de Kowloon.
 </t>
@@ -545,19 +559,11 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est accessible par différents moyens de transports.
-Les transports personnels
-Il y a un parking payant pour véhicules privés (voiture, vélo, moto) au rez-de-chaussée du terminal de croisière de Kai Tak (en) situé à moins de 100 mètres de l'entrée du parc.
-Le Taxi
-Les taxis de Hong Kong circulent tous les jours et 24 heures sur 24. 
-Le métro
-Pour le moment aucun métro ne dessert cette partie du territoire, mais à terme le parc devrait être relié à la future ligne Sha Tin to Central Link (en) par un monorail surélevé de 9 km de long[1].
-Le bus
-Bus numéro 5R[4] de la compagnie KMB (en) qui circule uniquement les dimanches et jours fériés de 11  heures à 19 heures.C'est un service spécial circulaire entre le terminal de croisière de Kai Tak (en) et les stations de métro (MTR) de Ngau Tau Kok et Kwun Tong (MTR) situées sur la Ligne Kwun Tong (MTR).Le trajet total (4,2 km) dure une quinzaine de minutes et est gratuit.La fréquence est d'environ un bus toutes les demi-heures.
-Le minibus
-Minibus (Light Public Bus) numéro 86[5] de la compagnie Green Minibus de Kowloon qui circule tous les jours (y compris les dimanches et jours fériés) entre 6 heures 40 et 23 heures.C'est un service régulier circulaire entre le centre de bus du quartier immobilier de (en)Telford Gardens dans le quartier de Kowloon Bay, district de Kowloon et le terminal de croisière de Kai Tak (en). Le trajet total (3,4 km) dure une quinzaine de minutes et coûte 5 $HK. La fréquence est d'environ un bus toutes les vingt minutes.
 </t>
         </is>
       </c>
@@ -583,14 +589,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Historique</t>
+          <t>Accès</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Depuis sa fermeture en 1998 et malgré le projet de développement de Kai Tak (en)[1],[2],[3], le site de l'ancien aéroport Kai Tak a été plus ou moins laissé à l'abandon pendant une décennie, mis à part certaines parties qui ont eu des utilisations diverses selon les époques. Ainsi la zone de l'ancienne piste a servi tour à tour de parking pour les compagnies de bus, de stockage pour les différentes administrations, ou bien encore de terrain de golf.
-En 2004 après des années de discussions entre le Gouvernement, les représentants locaux et les promoteurs immobiliers, le projet de développement de Kai Tak (en) est relancé et les choses s'accélèrent. Ce projet prévoit de transformer cette zone en un gigantesque complexe de zones résidentielles et commerciales, de parcs et jardins publics, avec des infrastructures telles qu'un stade géant, un terminal pour bateaux de croisière, des hôtels de luxe...
-Ainsi en 2004 commence la destruction des anciennes aérogares, qui se poursuit jusqu'en 2006. Puis à partir de 2008 on procède à la décontamination du site. La construction du parc en lui-même commence en août 2012 et se termine (pour la première phase) en avril 2014. Le parc est inauguré et officiellement ouvert au public en août 2014. La seconde phase est toujours en construction et devrait s'achever en 2016.
+          <t>Les transports personnels</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a un parking payant pour véhicules privés (voiture, vélo, moto) au rez-de-chaussée du terminal de croisière de Kai Tak (en) situé à moins de 100 mètres de l'entrée du parc.
 </t>
         </is>
       </c>
@@ -616,10 +626,195 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Accès</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le Taxi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les taxis de Hong Kong circulent tous les jours et 24 heures sur 24. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Parc_Kai_Tak_Runway</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_Kai_Tak_Runway</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Accès</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le métro</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour le moment aucun métro ne dessert cette partie du territoire, mais à terme le parc devrait être relié à la future ligne Sha Tin to Central Link (en) par un monorail surélevé de 9 km de long.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Parc_Kai_Tak_Runway</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_Kai_Tak_Runway</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Accès</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le bus</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bus numéro 5R de la compagnie KMB (en) qui circule uniquement les dimanches et jours fériés de 11  heures à 19 heures.C'est un service spécial circulaire entre le terminal de croisière de Kai Tak (en) et les stations de métro (MTR) de Ngau Tau Kok et Kwun Tong (MTR) situées sur la Ligne Kwun Tong (MTR).Le trajet total (4,2 km) dure une quinzaine de minutes et est gratuit.La fréquence est d'environ un bus toutes les demi-heures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Parc_Kai_Tak_Runway</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_Kai_Tak_Runway</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Accès</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Le minibus</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Minibus (Light Public Bus) numéro 86 de la compagnie Green Minibus de Kowloon qui circule tous les jours (y compris les dimanches et jours fériés) entre 6 heures 40 et 23 heures.C'est un service régulier circulaire entre le centre de bus du quartier immobilier de (en)Telford Gardens dans le quartier de Kowloon Bay, district de Kowloon et le terminal de croisière de Kai Tak (en). Le trajet total (3,4 km) dure une quinzaine de minutes et coûte 5 $HK. La fréquence est d'environ un bus toutes les vingt minutes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Parc_Kai_Tak_Runway</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_Kai_Tak_Runway</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis sa fermeture en 1998 et malgré le projet de développement de Kai Tak (en) le site de l'ancien aéroport Kai Tak a été plus ou moins laissé à l'abandon pendant une décennie, mis à part certaines parties qui ont eu des utilisations diverses selon les époques. Ainsi la zone de l'ancienne piste a servi tour à tour de parking pour les compagnies de bus, de stockage pour les différentes administrations, ou bien encore de terrain de golf.
+En 2004 après des années de discussions entre le Gouvernement, les représentants locaux et les promoteurs immobiliers, le projet de développement de Kai Tak (en) est relancé et les choses s'accélèrent. Ce projet prévoit de transformer cette zone en un gigantesque complexe de zones résidentielles et commerciales, de parcs et jardins publics, avec des infrastructures telles qu'un stade géant, un terminal pour bateaux de croisière, des hôtels de luxe...
+Ainsi en 2004 commence la destruction des anciennes aérogares, qui se poursuit jusqu'en 2006. Puis à partir de 2008 on procède à la décontamination du site. La construction du parc en lui-même commence en août 2012 et se termine (pour la première phase) en avril 2014. Le parc est inauguré et officiellement ouvert au public en août 2014. La seconde phase est toujours en construction et devrait s'achever en 2016.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Parc_Kai_Tak_Runway</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_Kai_Tak_Runway</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Description du parc[3]</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Construit en bout de piste de l’ancien aéroport de Kai Tak, il s’étend sur 2.82 hectares.
 Ce parc est dirigé par le Département des loisirs et des services culturels de Hong Kong.
@@ -630,9 +825,44 @@
 			Pelouse, fresque historique, station météo et espace exposition
 			Pelouse
 			Entrée du parc et fresque historique
-Équipements et mobilier
-De nombreux éléments proviennent de l'ancien aéroport.
-Les toilettes sont en fait d'anciens conteneurs, recouverts de plantes grimpantes pour se camoufler dans la décoration du parc[6]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Parc_Kai_Tak_Runway</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_Kai_Tak_Runway</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Description du parc[3]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Équipements et mobilier</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux éléments proviennent de l'ancien aéroport.
+Les toilettes sont en fait d'anciens conteneurs, recouverts de plantes grimpantes pour se camoufler dans la décoration du parc
 Le damier noir et jaune de bout de piste (qui servait de référence visuelle pour les pilotes en approche).
 Des éléments de l'ancienne piste, notamment les nombres 13 et 31 (la piste était  numérotée 13 / 31 car orientée à 135 / 315 degrés).
 L'ancienne station météorologique de l'aéroport a été déplacée à l'extrémité du parc et remise en service. Elle fournit ainsi d'importantes informations à l'Observatoire de Hong Kong très utiles dans la prévention des cyclones, fréquents dans cette ville.
@@ -647,37 +877,74 @@
 			Fresque historique (en anglais)
 			Fresque historique (en chinois)
 			Banc en forme d'avion et au graphisme d'étiquette bagage.
-Flore
-Partie à compléter lorsque les informations seront disponibles (pas d'informations en ligne et étiquetage des arbres et plantes non réalisé dans le parc).
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Parc_Kai_Tak_Runway</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parc_Kai_Tak_Runway</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Parc_Kai_Tak_Runway</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_Kai_Tak_Runway</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Description du parc[3]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Partie à compléter lorsque les informations seront disponibles (pas d'informations en ligne et étiquetage des arbres et plantes non réalisé dans le parc).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Parc_Kai_Tak_Runway</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_Kai_Tak_Runway</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Développements futurs[7]</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>La phase 2 du parc est en cours de réalisation et devrait être complétée en 2016.
 Cette partie du projet prévoit entre autres : 
@@ -687,35 +954,37 @@
 Une réplique de la caserne des pompiers de l'ancien aéroport qui sera la caserne des services de lutte contre les incendies et médicaux responsables du site.
 Des parcs à  jeux pour enfants, sur des thèmes liés à l'aéronautique.
 Plus d'espaces verts, d'arbres et de zones dédíees à la flore.
-Le parc sera inclus dans une randonnée historique au cours de laquelle les promeneurs pourront découvrir des lieux importants de l'histoire de Hong Kong[8].</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Parc_Kai_Tak_Runway</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parc_Kai_Tak_Runway</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+Le parc sera inclus dans une randonnée historique au cours de laquelle les promeneurs pourront découvrir des lieux importants de l'histoire de Hong Kong.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Parc_Kai_Tak_Runway</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_Kai_Tak_Runway</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Heures d'ouvertures</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc accueille les visiteurs tous les jours, vingt-quatre heures sur vingt-quatre.
 </t>
